--- a/docs/FD-ARK-06A_部品表.xlsx
+++ b/docs/FD-ARK-06A_部品表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomo\Downloads\Desktop\Development\FD-ARK\RasPiPico\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomo\Downloads\Desktop\Development\FD-ARK(dist)\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF73192-5E27-4181-997A-7D6146F66A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28AE463-1964-4714-AB6C-585FB5CD1F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2610" windowWidth="24435" windowHeight="15465" xr2:uid="{9F9E898D-63BF-415A-A478-451CEF4623CF}"/>
+    <workbookView xWindow="10560" yWindow="4170" windowWidth="21540" windowHeight="17340" xr2:uid="{9F9E898D-63BF-415A-A478-451CEF4623CF}"/>
   </bookViews>
   <sheets>
     <sheet name="06A" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
   <si>
     <t>記号</t>
     <rPh sb="0" eb="2">
@@ -455,10 +455,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>セラミックコンデンサ　0.01uF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C1, C2, C4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -560,10 +556,6 @@
   </si>
   <si>
     <t>R1,R2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.8k</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -589,6 +581,44 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セラミックコンデンサ　1uF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.7k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・初版</t>
+    <rPh sb="1" eb="3">
+      <t>ショハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・C1, C2, C4, C3 の部品スペックの誤記を修正した</t>
+    <rPh sb="24" eb="26">
+      <t>ゴキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・R3,R4の型番の誤記を修正した</t>
+    <rPh sb="7" eb="9">
+      <t>カタバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -736,35 +766,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,10 +1114,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1106,12 +1136,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G1" s="9">
-        <v>45150</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1133,256 +1163,256 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="6" t="s">
         <v>78</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="11">
+        <v>104</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="12">
-        <v>104</v>
-      </c>
-      <c r="C4" s="13">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="B5" s="10">
+        <v>105</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="11">
-        <v>105</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>83</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="B10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="18">
-        <v>1</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -1392,411 +1422,439 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>2</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="B19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
+      <c r="F19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="B20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>3</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>2</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>60</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="13">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="13">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>91</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="13">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>67</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="11" t="s">
+      <c r="B28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="B29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="12">
+        <v>2</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="B30" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="12">
         <v>2</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="G30" s="13"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="13">
-        <v>2</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="B31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="12">
+        <v>7</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="13">
-        <v>7</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="9">
+        <v>45150</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="9">
+        <v>45167</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
